--- a/config_debug/act_ty_ldfd_config.xlsx
+++ b/config_debug/act_ty_ldfd_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>line</t>
   </si>
@@ -56,11 +56,80 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>actp_buy_gift_class_hqjnh_046_cjj_hllb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10577,10576,10575,10574,10573,10572,10571</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ctp_own_task_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_hljnh_046_hlfl_nor</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1630339199,1629129599</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1627948800,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1628553600</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"actp_buy_gift_class_hqjnh_046_cjj_hllb","actp_own_task_p_hljnh_046_hlfl_nor"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10620,10619,10618,10617,10616,10615,10614</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,6 +198,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,14 +480,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="77.375" customWidth="1"/>
   </cols>
@@ -427,7 +499,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -438,8 +510,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>1627948800</v>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -450,8 +522,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>1630339199</v>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -461,8 +533,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -472,14 +544,14 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -488,7 +560,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,11 +601,25 @@
         <v>1000653</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E3" s="4"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1000733</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_debug/act_ty_ldfd_config.xlsx
+++ b/config_debug/act_ty_ldfd_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,6 +96,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -129,7 +130,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10620,10619,10618,10617,10616,10615,10614</t>
+    <t>10614,10615,10616,10617,10618,10619,10620</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,9 +618,12 @@
       <c r="D3">
         <v>1000733</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_debug/act_ty_ldfd_config.xlsx
+++ b/config_debug/act_ty_ldfd_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="info|时间" sheetId="1" r:id="rId1"/>
@@ -109,15 +109,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10614,10615,10616,10617,10618,10619,10620</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1632787200,1632787200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1633967999,1633967999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10620,10619,10618,10617,10616,10615,10614</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -511,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,7 +606,7 @@
         <v>1000733</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
